--- a/dataset/의도분류질문_test0728.xlsx
+++ b/dataset/의도분류질문_test0728.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dosawasseungjun/projects/to_test_hongik-gpt/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dosawasseungjun/HongikProjects/hongik-gpt/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB8EAB4-BDAD-6F40-BD3A-040BF314E5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A800C-4853-9D4C-8B90-B9972A129463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{78F0A5B5-BC5D-914F-BF7C-4A3608CAEC68}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="30240" windowHeight="17640" xr2:uid="{78F0A5B5-BC5D-914F-BF7C-4A3608CAEC68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="239">
   <si>
     <t>의도</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -992,6 +992,18 @@
   </si>
   <si>
     <t>답변</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서명, 교직원/교수님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학관 열람실, T동 열람실, R동 열람실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1424,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4B3380-BB96-544F-823F-1CBD44200687}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
@@ -1436,7 +1448,7 @@
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,8 +1458,11 @@
       <c r="C1" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="228">
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="228">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1473,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1490,7 +1505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1577,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1585,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1588,8 +1603,11 @@
       <c r="C18" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1597,7 +1615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="38">
+    <row r="20" spans="1:4" ht="38">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1626,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +1642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="57">
+    <row r="24" spans="1:4" ht="57">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1643,7 +1661,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1651,7 +1669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19">
+    <row r="27" spans="1:4" ht="19">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19">
+    <row r="28" spans="1:4" ht="19">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1675,7 +1693,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19">
+    <row r="29" spans="1:4" ht="19">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -1683,7 +1701,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19">
+    <row r="30" spans="1:4" ht="19">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -1691,7 +1709,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19">
+    <row r="31" spans="1:4" ht="19">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1717,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19">
+    <row r="32" spans="1:4" ht="19">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2886,7 +2904,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="19">
+    <row r="177" spans="1:4" ht="19">
       <c r="A177" s="3" t="s">
         <v>145</v>
       </c>
@@ -2897,7 +2915,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="19">
+    <row r="178" spans="1:4" ht="19">
       <c r="A178" s="3" t="s">
         <v>145</v>
       </c>
@@ -2908,7 +2926,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="19">
+    <row r="179" spans="1:4" ht="19">
       <c r="A179" s="3" t="s">
         <v>145</v>
       </c>
@@ -2919,7 +2937,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="19">
+    <row r="180" spans="1:4" ht="19">
       <c r="A180" s="3" t="s">
         <v>145</v>
       </c>
@@ -2930,7 +2948,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="38">
+    <row r="181" spans="1:4" ht="38">
       <c r="A181" s="3" t="s">
         <v>145</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="76">
+    <row r="182" spans="1:4" ht="76">
       <c r="A182" s="3" t="s">
         <v>145</v>
       </c>
@@ -2952,7 +2970,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="76">
+    <row r="183" spans="1:4" ht="76">
       <c r="A183" s="3" t="s">
         <v>145</v>
       </c>
@@ -2963,7 +2981,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="38">
+    <row r="184" spans="1:4" ht="38">
       <c r="A184" s="3" t="s">
         <v>145</v>
       </c>
@@ -2974,7 +2992,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="38">
+    <row r="185" spans="1:4" ht="38">
       <c r="A185" s="3" t="s">
         <v>149</v>
       </c>
@@ -2985,7 +3003,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="38">
+    <row r="186" spans="1:4" ht="38">
       <c r="A186" t="s">
         <v>148</v>
       </c>
@@ -2996,7 +3014,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="95">
+    <row r="187" spans="1:4" ht="95">
       <c r="A187" s="3" t="s">
         <v>177</v>
       </c>
@@ -3006,8 +3024,11 @@
       <c r="C187" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="95">
+      <c r="D187" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="95">
       <c r="A188" s="3" t="s">
         <v>177</v>
       </c>
@@ -3017,8 +3038,11 @@
       <c r="C188" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="95">
+      <c r="D188" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="95">
       <c r="A189" s="3" t="s">
         <v>177</v>
       </c>
@@ -3028,8 +3052,11 @@
       <c r="C189" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="76">
+      <c r="D189" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="76">
       <c r="A190" s="3" t="s">
         <v>177</v>
       </c>
@@ -3040,7 +3067,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="76">
+    <row r="191" spans="1:4" ht="76">
       <c r="A191" s="3" t="s">
         <v>177</v>
       </c>
@@ -3051,7 +3078,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="76">
+    <row r="192" spans="1:4" ht="76">
       <c r="A192" s="3" t="s">
         <v>177</v>
       </c>
@@ -3105,6 +3132,7 @@
       <c r="C196" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="D196" s="3"/>
     </row>
     <row r="197" spans="1:4" ht="95">
       <c r="A197" s="3" t="s">
@@ -3116,6 +3144,9 @@
       <c r="C197" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="D197" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="198" spans="1:4" ht="95">
       <c r="A198" s="3" t="s">
@@ -3127,6 +3158,9 @@
       <c r="C198" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="D198" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="199" spans="1:4" ht="95">
       <c r="A199" s="3" t="s">
@@ -3138,7 +3172,9 @@
       <c r="C199" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D199" s="3"/>
+      <c r="D199" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="200" spans="1:4" ht="20" customHeight="1">
       <c r="C200" s="3"/>
